--- a/biology/Médecine/1103_en_santé_et_médecine/1103_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1103_en_santé_et_médecine/1103_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1103_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1103_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1103 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1103_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1103_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un hospice est attesté à Montay dans le diocèse de Cambrai, établissement qui, devenu léproserie, sera érigé en abbaye Saint-Lazare par l'évêque Burchard en 1116[1],[2].
-Fondation d'un hôpital à Foncebadón, dans le royaume de León en Espagne[3].
-L'hospice de la Madeleine, fondé en 1054 par Thibaud III, comte de Chartres, devient la léproserie du Grand-Beaulieu (Magnus Bellus-Locus), appartenant aux chevaliers de Saint-Jean de Jérusalem et qui sera remplacée en 1666 par le grand séminaire[4],[5].
-Un hôpital appartenant à l'église San Martino (it) de Pise, en Toscane, est mentionné pour la première fois[6].
-En Chine, l'empereur Huizong fonde une école de médecine placée sous la tutelle du ministère de l'Éducation, conçue pour recevoir trois cents étudiants et dont les diplômés seront appointés par l'État[7].
-Après 1103 : à son retour de croisade, Raymond Ier, vicomte de Turenne, fonde sur ses terres « un hôpital, nommé Jaffa, destiné à recevoir les pèlerins qui descend[ent] du Nord vers le Midi, et une léproserie placée à Nazareth sur la même route[8] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un hospice est attesté à Montay dans le diocèse de Cambrai, établissement qui, devenu léproserie, sera érigé en abbaye Saint-Lazare par l'évêque Burchard en 1116,.
+Fondation d'un hôpital à Foncebadón, dans le royaume de León en Espagne.
+L'hospice de la Madeleine, fondé en 1054 par Thibaud III, comte de Chartres, devient la léproserie du Grand-Beaulieu (Magnus Bellus-Locus), appartenant aux chevaliers de Saint-Jean de Jérusalem et qui sera remplacée en 1666 par le grand séminaire,.
+Un hôpital appartenant à l'église San Martino (it) de Pise, en Toscane, est mentionné pour la première fois.
+En Chine, l'empereur Huizong fonde une école de médecine placée sous la tutelle du ministère de l'Éducation, conçue pour recevoir trois cents étudiants et dont les diplômés seront appointés par l'État.
+Après 1103 : à son retour de croisade, Raymond Ier, vicomte de Turenne, fonde sur ses terres « un hôpital, nommé Jaffa, destiné à recevoir les pèlerins qui descend[ent] du Nord vers le Midi, et une léproserie placée à Nazareth sur la même route ».</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1103_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1103_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Épizootie bovine en Angleterre[9].
-Baudouin Ier, roi de Jérusalem, est atteint, à Jaffa, d'un coup de lance dans les reins, blessure dont il se remet, mais dont les séquelles seront sans doute, quinze ans plus tard, la cause de sa mort[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Épizootie bovine en Angleterre.
+Baudouin Ier, roi de Jérusalem, est atteint, à Jaffa, d'un coup de lance dans les reins, blessure dont il se remet, mais dont les séquelles seront sans doute, quinze ans plus tard, la cause de sa mort.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1103_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1103_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Giovanni, fils de Costantino Siciliano, médecin de l'école de Salerne[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Giovanni, fils de Costantino Siciliano, médecin de l'école de Salerne.</t>
         </is>
       </c>
     </row>
